--- a/auca/sem-1/acct-8112-ancounting/assignments/Merchandaizing  Process.xlsx
+++ b/auca/sem-1/acct-8112-ancounting/assignments/Merchandaizing  Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="27960" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>PURCHASING PROCESS</t>
   </si>
@@ -101,15 +101,27 @@
     <t>Total payement happend on 22/01/2025</t>
   </si>
   <si>
+    <r>
+      <t>· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sauda paid transport related to purchase books 12,950</t>
+    </r>
+  </si>
+  <si>
     <t>15/1/2025</t>
   </si>
   <si>
     <t>Acc Payable</t>
   </si>
   <si>
-    <t>Journalize all transactions from 10/01 up to  22/01/2025</t>
-  </si>
-  <si>
     <t>Allowance granted</t>
   </si>
   <si>
@@ -128,6 +140,9 @@
     <t>On 13/01 Sauda sold 12 books at 20,000 Frw each to AUCA Library on Account</t>
   </si>
   <si>
+    <t>freight in happened</t>
+  </si>
+  <si>
     <t>On 14/01, 2 books were returned.</t>
   </si>
   <si>
@@ -140,34 +155,118 @@
     <t>Acc Receivable</t>
   </si>
   <si>
-    <t>Journalize all transaction.</t>
+    <r>
+      <t>· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sauda granted to the customer a sale allowance of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000rwf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on 16/1/2025</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">   Sales revenue</t>
   </si>
   <si>
+    <r>
+      <t>· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>She collected the total amount on 21/1/2025</t>
+    </r>
+  </si>
+  <si>
     <t>Cost of Good sold</t>
   </si>
   <si>
+    <t>Journalize all transactions related to sales in the books of Sauda</t>
+  </si>
+  <si>
     <t>Sold Inventory on Account</t>
   </si>
   <si>
     <t>14/1/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">    Acc Receivable</t>
+  </si>
+  <si>
     <t xml:space="preserve">   cost of good sold</t>
   </si>
   <si>
     <t xml:space="preserve">Buyer Returned inventory </t>
   </si>
   <si>
+    <t>16/1/2025</t>
+  </si>
+  <si>
+    <t>Sales revenue</t>
+  </si>
+  <si>
+    <t>Sales allowance granted</t>
+  </si>
+  <si>
+    <t>21/01/2025</t>
+  </si>
+  <si>
     <t>Cash</t>
   </si>
   <si>
     <t>Sales Discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Acc Receivable</t>
   </si>
 </sst>
 </file>
@@ -175,12 +274,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +310,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -219,33 +438,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,62 +454,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,45 +472,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -372,37 +485,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,19 +641,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,128 +669,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -566,17 +679,91 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +783,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -611,11 +807,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,166 +856,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,13 +1017,61 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1195,10 +1436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1212,27 +1453,27 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1241,19 +1482,19 @@
       <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="15">
         <v>45931</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1263,6 +1504,7 @@
         <f>20*15000</f>
         <v>300000</v>
       </c>
+      <c r="L4" s="16"/>
       <c r="O4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1274,10 +1516,11 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="I5" s="17"/>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="16">
         <f>20*15000</f>
         <v>300000</v>
       </c>
@@ -1290,9 +1533,11 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I6" s="17"/>
       <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L6" s="16"/>
       <c r="P6" s="1">
         <f>L9</f>
         <v>30000</v>
@@ -1302,16 +1547,18 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="I7" s="17"/>
+      <c r="L7" s="16"/>
       <c r="P7" s="1">
         <f>L13</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="15">
         <v>45992</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1321,15 +1568,17 @@
         <f>2*15000</f>
         <v>30000</v>
       </c>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I9" s="17"/>
       <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="16">
         <f>2*15000</f>
         <v>30000</v>
       </c>
@@ -1341,25 +1590,29 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I10" s="17"/>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="I11" s="17"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" ht="19.5" spans="1:16">
+      <c r="A12" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>12</v>
@@ -1367,19 +1620,19 @@
       <c r="K12" s="1">
         <v>5000</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="L12" s="16"/>
+      <c r="O12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" ht="15" spans="1:16">
+      <c r="A13" s="5"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="16">
         <v>5000</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -1389,13 +1642,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="14" ht="19.5" spans="1:16">
+      <c r="A14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17"/>
       <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="L14" s="16"/>
       <c r="P14" s="1">
         <f>L5</f>
         <v>300000</v>
@@ -1405,6 +1660,8 @@
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I15" s="17"/>
+      <c r="L15" s="16"/>
       <c r="O15" s="1">
         <f>K8</f>
         <v>30000</v>
@@ -1414,7 +1671,7 @@
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="17" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1424,6 +1681,7 @@
         <f>300000-30000-5000</f>
         <v>265000</v>
       </c>
+      <c r="L16" s="16"/>
       <c r="O16" s="1">
         <f>K12</f>
         <v>5000</v>
@@ -1433,10 +1691,11 @@
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="I17" s="17"/>
       <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="16">
         <f>K16-K16*0.03</f>
         <v>257050</v>
       </c>
@@ -1452,200 +1711,326 @@
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="I18" s="17"/>
       <c r="J18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="16">
         <f>K16*0.03</f>
         <v>7950</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="I19" s="17"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="9:12">
+      <c r="I20" s="17"/>
+      <c r="J20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1">
+        <v>12950</v>
+      </c>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="9:12">
+      <c r="I21" s="17"/>
+      <c r="J21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="16">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="9:12">
+      <c r="I22" s="18"/>
+      <c r="J22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="4" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L26" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="I27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="1">
+      <c r="J27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="1">
         <f>12*20000</f>
         <v>240000</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" ht="19.5" spans="1:12">
+      <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="1">
+      <c r="I28" s="17"/>
+      <c r="J28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="16">
         <f>12*20000</f>
         <v>240000</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="1">
+    <row r="29" ht="15" spans="1:12">
+      <c r="A29" s="5"/>
+      <c r="I29" s="17"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" ht="19.5" spans="1:12">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="1">
         <f>12*15000</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" ht="15" spans="1:12">
+      <c r="A31" s="5"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L31" s="16">
         <f>12*15000</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="29" spans="10:10">
-      <c r="J29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="9:11">
-      <c r="I31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="1" t="s">
+    <row r="32" ht="19.5" spans="1:12">
+      <c r="A32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" ht="15" spans="1:12">
+      <c r="A33" s="5"/>
+      <c r="I33" s="17"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" ht="19.5" spans="9:12">
+      <c r="I34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K34" s="1">
         <f>2*20000</f>
         <v>40000</v>
       </c>
-    </row>
-    <row r="32" spans="10:12">
-      <c r="J32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="9:12">
+      <c r="I35" s="17"/>
+      <c r="J35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="16">
         <f>2*20000</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="34" spans="9:11">
-      <c r="I34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34" s="1" t="s">
+    <row r="36" spans="9:12">
+      <c r="I36" s="17"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="9:12">
+      <c r="I37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K37" s="1">
         <f>2*15000</f>
         <v>30000</v>
       </c>
-    </row>
-    <row r="35" spans="10:12">
-      <c r="J35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" s="1">
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="9:12">
+      <c r="I38" s="17"/>
+      <c r="J38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="16">
         <f>2*15000</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="36" spans="10:10">
-      <c r="J36" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="9:11">
-      <c r="I39" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="39" spans="9:12">
+      <c r="I39" s="17"/>
       <c r="J39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="1">
-        <f>L41-L41*0.02</f>
-        <v>196000</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="9:12">
+      <c r="I40" s="17"/>
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="9:12">
+      <c r="I41" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="9:12">
+      <c r="I42" s="17"/>
+      <c r="J42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="1">
-        <f>L41*0.02</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="41" spans="10:12">
-      <c r="J41" s="1" t="s">
+      <c r="L42" s="16">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="9:12">
+      <c r="I43" s="17"/>
+      <c r="J43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="16"/>
+    </row>
+    <row r="44" spans="9:12">
+      <c r="I44" s="17"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="9:12">
+      <c r="I45" s="17"/>
+      <c r="L45" s="16"/>
+    </row>
+    <row r="46" spans="9:12">
+      <c r="I46" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="1">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" spans="9:12">
+      <c r="I47" s="17"/>
+      <c r="J47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L41" s="1">
-        <f>K24-L32</f>
-        <v>200000</v>
+      <c r="L47" s="16">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="9:12">
+      <c r="I48" s="17"/>
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="9:12">
+      <c r="I49" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="1">
+        <f>L51-L51*0.02</f>
+        <v>186200</v>
+      </c>
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="9:12">
+      <c r="I50" s="17"/>
+      <c r="J50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="1">
+        <f>L51*0.02</f>
+        <v>3800</v>
+      </c>
+      <c r="L50" s="16"/>
+    </row>
+    <row r="51" ht="13.5" spans="9:12">
+      <c r="I51" s="18"/>
+      <c r="J51" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20">
+        <f>K27-L35-L42</f>
+        <v>190000</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +2038,7 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="I1:L2"/>
-    <mergeCell ref="I21:L22"/>
+    <mergeCell ref="I24:L25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1665,7 +2050,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/auca/sem-1/acct-8112-ancounting/assignments/Merchandaizing  Process.xlsx
+++ b/auca/sem-1/acct-8112-ancounting/assignments/Merchandaizing  Process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="12450"/>
+    <workbookView windowWidth="27960" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
   <si>
     <t>PURCHASING PROCESS</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>· </t>
     </r>
     <r>
@@ -156,6 +162,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>· </t>
     </r>
     <r>
@@ -216,6 +228,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>· </t>
     </r>
     <r>
@@ -268,6 +286,51 @@
   <si>
     <t>Sales Discount</t>
   </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   acc payable</t>
+  </si>
+  <si>
+    <t>Acc payable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   sales revenue</t>
+  </si>
+  <si>
+    <t>cost of good sold</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cost of goods sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   cash</t>
+  </si>
+  <si>
+    <t>Acc receivable</t>
+  </si>
+  <si>
+    <t>Sales return &amp; allowance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Acc receivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Note payable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Cash</t>
+  </si>
+  <si>
+    <t>Sales discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
 </sst>
 </file>
 
@@ -275,12 +338,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -316,15 +387,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,14 +408,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,6 +426,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -369,9 +449,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,7 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,23 +518,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,36 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="8"/>
       <color theme="1"/>
@@ -467,14 +538,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -485,85 +548,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,30 +704,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -611,71 +716,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,52 +883,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -785,24 +924,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,11 +950,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,96 +980,87 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,72 +1069,108 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1022,55 +1182,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,8 +1306,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1438,597 +1598,597 @@
   <sheetPr/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="9" width="8.8" style="1"/>
-    <col min="10" max="10" width="19.9" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.8" style="1"/>
+    <col min="1" max="9" width="8.8" style="14"/>
+    <col min="10" max="10" width="19.9" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="8.8" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" ht="13.5" spans="1:12">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="21"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="27">
         <v>45931</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="14">
         <f>20*15000</f>
         <v>300000</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="O4" s="2" t="s">
+      <c r="L4" s="28"/>
+      <c r="O4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="28">
         <f>20*15000</f>
         <v>300000</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="14">
         <f>K4</f>
         <v>300000</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="P6" s="1">
+      <c r="L6" s="28"/>
+      <c r="P6" s="14">
         <f>L9</f>
         <v>30000</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="L7" s="16"/>
-      <c r="P7" s="1">
+      <c r="I7" s="29"/>
+      <c r="L7" s="28"/>
+      <c r="P7" s="14">
         <f>L13</f>
         <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="27">
         <v>45992</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="14">
         <f>2*15000</f>
         <v>30000</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="28">
         <f>2*15000</f>
         <v>30000</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="14">
         <f>O5-P6-P7</f>
         <v>265000</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" ht="19.5" spans="1:16">
-      <c r="A12" s="4" t="s">
+      <c r="I11" s="29"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" ht="15" spans="1:16">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="14">
         <v>5000</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="O12" s="21" t="s">
+      <c r="L12" s="28"/>
+      <c r="O12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="21"/>
+      <c r="P12" s="33"/>
     </row>
     <row r="13" ht="15" spans="1:16">
-      <c r="A13" s="5"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="1" t="s">
+      <c r="A13" s="18"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="28">
         <v>5000</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="19.5" spans="1:16">
-      <c r="A14" s="6" t="s">
+    <row r="14" ht="15" spans="1:16">
+      <c r="A14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="29"/>
+      <c r="J14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="P14" s="1">
+      <c r="L14" s="28"/>
+      <c r="P14" s="14">
         <f>L5</f>
         <v>300000</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="L15" s="16"/>
-      <c r="O15" s="1">
+      <c r="I15" s="29"/>
+      <c r="L15" s="28"/>
+      <c r="O15" s="14">
         <f>K8</f>
         <v>30000</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="14">
         <f>300000-30000-5000</f>
         <v>265000</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="O16" s="1">
+      <c r="L16" s="28"/>
+      <c r="O16" s="14">
         <f>K12</f>
         <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="1" t="s">
+      <c r="I17" s="29"/>
+      <c r="J17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="28">
         <f>K16-K16*0.03</f>
         <v>257050</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="14">
         <f>P14-O15-O16</f>
         <v>265000</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="1" t="s">
+      <c r="I18" s="29"/>
+      <c r="J18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="28">
         <f>K16*0.03</f>
         <v>7950</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="L19" s="16"/>
+      <c r="I19" s="29"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="9:12">
-      <c r="I20" s="17"/>
-      <c r="J20" s="1" t="s">
+      <c r="I20" s="29"/>
+      <c r="J20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="14">
         <v>12950</v>
       </c>
-      <c r="L20" s="16"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="9:12">
-      <c r="I21" s="17"/>
-      <c r="J21" s="1" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="28">
         <v>12950</v>
       </c>
     </row>
     <row r="22" ht="13.5" spans="9:12">
-      <c r="I22" s="18"/>
-      <c r="J22" s="19" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="K22" s="31"/>
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" ht="13.5" spans="1:1">
+      <c r="A23" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" ht="13.5" spans="1:12">
+      <c r="A25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="12"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="14">
         <f>12*20000</f>
         <v>240000</v>
       </c>
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" ht="19.5" spans="1:12">
-      <c r="A28" s="4" t="s">
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" ht="15" spans="1:12">
+      <c r="A28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="1" t="s">
+      <c r="I28" s="29"/>
+      <c r="J28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="28">
         <f>12*20000</f>
         <v>240000</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:12">
-      <c r="A29" s="5"/>
-      <c r="I29" s="17"/>
-      <c r="L29" s="16"/>
-    </row>
-    <row r="30" ht="19.5" spans="1:12">
-      <c r="A30" s="4" t="s">
+      <c r="A29" s="18"/>
+      <c r="I29" s="29"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" ht="15" spans="1:12">
+      <c r="A30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="14">
         <f>12*15000</f>
         <v>180000</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" ht="15" spans="1:12">
-      <c r="A31" s="5"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="1" t="s">
+      <c r="A31" s="18"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="28">
         <f>12*15000</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="32" ht="19.5" spans="1:12">
-      <c r="A32" s="6" t="s">
+    <row r="32" ht="15" spans="1:12">
+      <c r="A32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="1" t="s">
+      <c r="I32" s="29"/>
+      <c r="J32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="16"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" ht="15" spans="1:12">
-      <c r="A33" s="5"/>
-      <c r="I33" s="17"/>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" ht="19.5" spans="9:12">
-      <c r="I34" s="17" t="s">
+      <c r="A33" s="18"/>
+      <c r="I33" s="29"/>
+      <c r="L33" s="28"/>
+    </row>
+    <row r="34" spans="9:12">
+      <c r="I34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="14">
         <f>2*20000</f>
         <v>40000</v>
       </c>
-      <c r="L34" s="16"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" spans="9:12">
-      <c r="I35" s="17"/>
-      <c r="J35" s="1" t="s">
+      <c r="I35" s="29"/>
+      <c r="J35" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="28">
         <f>2*20000</f>
         <v>40000</v>
       </c>
     </row>
     <row r="36" spans="9:12">
-      <c r="I36" s="17"/>
-      <c r="L36" s="16"/>
+      <c r="I36" s="29"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" spans="9:12">
-      <c r="I37" s="17" t="s">
+      <c r="I37" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="14">
         <f>2*15000</f>
         <v>30000</v>
       </c>
-      <c r="L37" s="16"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" spans="9:12">
-      <c r="I38" s="17"/>
-      <c r="J38" s="1" t="s">
+      <c r="I38" s="29"/>
+      <c r="J38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="28">
         <f>2*15000</f>
         <v>30000</v>
       </c>
     </row>
     <row r="39" spans="9:12">
-      <c r="I39" s="17"/>
-      <c r="J39" s="1" t="s">
+      <c r="I39" s="29"/>
+      <c r="J39" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L39" s="16"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="9:12">
-      <c r="I40" s="17"/>
-      <c r="L40" s="16"/>
+      <c r="I40" s="29"/>
+      <c r="L40" s="28"/>
     </row>
     <row r="41" spans="9:12">
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="14">
         <f>1000*10</f>
         <v>10000</v>
       </c>
-      <c r="L41" s="16"/>
+      <c r="L41" s="28"/>
     </row>
     <row r="42" spans="9:12">
-      <c r="I42" s="17"/>
-      <c r="J42" s="1" t="s">
+      <c r="I42" s="29"/>
+      <c r="J42" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="28">
         <f>1000*10</f>
         <v>10000</v>
       </c>
     </row>
     <row r="43" spans="9:12">
-      <c r="I43" s="17"/>
-      <c r="J43" s="1" t="s">
+      <c r="I43" s="29"/>
+      <c r="J43" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L43" s="16"/>
+      <c r="L43" s="28"/>
     </row>
     <row r="44" spans="9:12">
-      <c r="I44" s="17"/>
-      <c r="L44" s="16"/>
+      <c r="I44" s="29"/>
+      <c r="L44" s="28"/>
     </row>
     <row r="45" spans="9:12">
-      <c r="I45" s="17"/>
-      <c r="L45" s="16"/>
+      <c r="I45" s="29"/>
+      <c r="L45" s="28"/>
     </row>
     <row r="46" spans="9:12">
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="14">
         <f>1000*10</f>
         <v>10000</v>
       </c>
-      <c r="L46" s="16"/>
+      <c r="L46" s="28"/>
     </row>
     <row r="47" spans="9:12">
-      <c r="I47" s="17"/>
-      <c r="J47" s="1" t="s">
+      <c r="I47" s="29"/>
+      <c r="J47" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="16">
+      <c r="L47" s="28">
         <f>1000*10</f>
         <v>10000</v>
       </c>
     </row>
     <row r="48" spans="9:12">
-      <c r="I48" s="17"/>
-      <c r="L48" s="16"/>
+      <c r="I48" s="29"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" spans="9:12">
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="14">
         <f>L51-L51*0.02</f>
         <v>186200</v>
       </c>
-      <c r="L49" s="16"/>
+      <c r="L49" s="28"/>
     </row>
     <row r="50" spans="9:12">
-      <c r="I50" s="17"/>
-      <c r="J50" s="1" t="s">
+      <c r="I50" s="29"/>
+      <c r="J50" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="14">
         <f>L51*0.02</f>
         <v>3800</v>
       </c>
-      <c r="L50" s="16"/>
+      <c r="L50" s="28"/>
     </row>
     <row r="51" ht="13.5" spans="9:12">
-      <c r="I51" s="18"/>
-      <c r="J51" s="19" t="s">
+      <c r="I51" s="30"/>
+      <c r="J51" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20">
+      <c r="K51" s="31"/>
+      <c r="L51" s="32">
         <f>K27-L35-L42</f>
         <v>190000</v>
       </c>
@@ -2048,14 +2208,558 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="K2:R45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="12" max="12" width="21.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="15.75" spans="11:18">
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" ht="15.75" spans="11:18">
+      <c r="K3" s="2">
+        <v>45811</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>1600</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="P3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="11:18">
+      <c r="K4" s="3"/>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1600</v>
+      </c>
+      <c r="P4" s="2">
+        <v>45811</v>
+      </c>
+      <c r="Q4">
+        <v>1600</v>
+      </c>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="11:18">
+      <c r="K5" s="3"/>
+      <c r="N5" s="7"/>
+      <c r="P5" s="2">
+        <v>45817</v>
+      </c>
+      <c r="R5" s="7">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="11:18">
+      <c r="K6" s="3">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <f>1600*0.4</f>
+        <v>640</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="P6" s="2">
+        <v>45820</v>
+      </c>
+      <c r="R6" s="7">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="11:18">
+      <c r="K7" s="3"/>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="7">
+        <v>640</v>
+      </c>
+      <c r="P7" s="2">
+        <v>45823</v>
+      </c>
+      <c r="Q7">
+        <v>5000</v>
+      </c>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="11:18">
+      <c r="K8" s="3"/>
+      <c r="N8" s="7"/>
+      <c r="P8" s="2">
+        <v>45824</v>
+      </c>
+      <c r="Q8">
+        <v>260</v>
+      </c>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="11:18">
+      <c r="K9" s="3">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9">
+        <v>920</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="P9" s="2">
+        <v>45826</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="10" spans="11:18">
+      <c r="K10" s="3"/>
+      <c r="L10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="7">
+        <v>920</v>
+      </c>
+      <c r="P10" s="2">
+        <v>45830</v>
+      </c>
+      <c r="Q10">
+        <v>480</v>
+      </c>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="11:18">
+      <c r="K11" s="3"/>
+      <c r="N11" s="7"/>
+      <c r="P11" s="2">
+        <v>45832</v>
+      </c>
+      <c r="R11" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="11:18">
+      <c r="K12" s="3">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12">
+        <v>550</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" ht="15.75" spans="11:18">
+      <c r="K13" s="3"/>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="7">
+        <v>550</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="12">
+        <f>SUM(Q4:Q11)</f>
+        <v>7340</v>
+      </c>
+      <c r="R13" s="12">
+        <f>SUM(R4:R11)</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="11:18">
+      <c r="K14" s="3"/>
+      <c r="N14" s="7"/>
+      <c r="P14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="12">
+        <f>Q13-R13</f>
+        <v>4820</v>
+      </c>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="11:14">
+      <c r="K15" s="3">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>5000</v>
+      </c>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="11:14">
+      <c r="K16" s="3"/>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14">
+      <c r="K17" s="3"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" ht="15.75" spans="11:18">
+      <c r="K18" s="3">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>260</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="P18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" ht="15.75" spans="11:18">
+      <c r="K19" s="3"/>
+      <c r="L19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="7">
+        <v>260</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="11:18">
+      <c r="K20" s="3"/>
+      <c r="N20" s="7"/>
+      <c r="P20" s="2">
+        <v>45820</v>
+      </c>
+      <c r="Q20">
+        <v>550</v>
+      </c>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="11:18">
+      <c r="K21" s="3">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21">
+        <v>2000</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="P21" s="2">
+        <v>45826</v>
+      </c>
+      <c r="Q21">
+        <v>1180</v>
+      </c>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="11:18">
+      <c r="K22" s="3"/>
+      <c r="L22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2000</v>
+      </c>
+      <c r="P22" s="2">
+        <v>45830</v>
+      </c>
+      <c r="R22" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="11:18">
+      <c r="K23" s="3"/>
+      <c r="N23" s="7"/>
+      <c r="P23" s="3"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" ht="15.75" spans="11:18">
+      <c r="K24" s="3">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24">
+        <v>1180</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="P24" s="3"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" spans="11:18">
+      <c r="K25" s="3"/>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1180</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="12">
+        <f>SUM(Q20:Q23)</f>
+        <v>1730</v>
+      </c>
+      <c r="R25" s="12">
+        <f>SUM(R20:R23)</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="11:18">
+      <c r="K26" s="3"/>
+      <c r="N26" s="7"/>
+      <c r="P26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="12">
+        <f>Q25-R25</f>
+        <v>1250</v>
+      </c>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="11:14">
+      <c r="K27" s="3">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27">
+        <v>800</v>
+      </c>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="11:14">
+      <c r="K28" s="3"/>
+      <c r="L28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="11:14">
+      <c r="K29" s="3"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" ht="15.75" spans="11:15">
+      <c r="K30" s="3">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>480</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="11:14">
+      <c r="K31" s="3"/>
+      <c r="L31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="11:14">
+      <c r="K32" s="3"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="11:14">
+      <c r="K33" s="3">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>46</v>
+      </c>
+      <c r="M33">
+        <v>4850</v>
+      </c>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="11:14">
+      <c r="K34" s="3"/>
+      <c r="L34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14">
+      <c r="K35" s="3"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="11:14">
+      <c r="K36" s="3">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="11:14">
+      <c r="K37" s="3"/>
+      <c r="L37" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="7">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="38" spans="11:14">
+      <c r="K38" s="3"/>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="7">
+        <f>5000*0.03</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="11:14">
+      <c r="K39" s="3"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" ht="15.75" spans="11:14">
+      <c r="K40" s="3">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40">
+        <f>(2000-800)*0.98</f>
+        <v>1176</v>
+      </c>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" ht="15.75" spans="11:14">
+      <c r="K41" s="3"/>
+      <c r="L41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M41" s="8">
+        <f>(2000-800)*0.02</f>
+        <v>24</v>
+      </c>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="11:14">
+      <c r="K42" s="3"/>
+      <c r="L42" t="s">
+        <v>58</v>
+      </c>
+      <c r="N42" s="7">
+        <f>2000-800</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="11:14">
+      <c r="K43" s="3"/>
+      <c r="L43" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="11:14">
+      <c r="K44" s="3">
+        <v>29</v>
+      </c>
+      <c r="L44" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <f>1600-640</f>
+        <v>960</v>
+      </c>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" ht="15.75" spans="11:14">
+      <c r="K45" s="4"/>
+      <c r="L45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="9">
+        <f>1600-640</f>
+        <v>960</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P18:R18"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
